--- a/CashFlow/MGM_cashflow.xlsx
+++ b/CashFlow/MGM_cashflow.xlsx
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>374000000.0</v>
+        <v>100027000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>398000000.0</v>
+        <v>14705000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>308788000.0</v>
+        <v>4480000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>214409000.0</v>
+        <v>-2375000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>112099000.0</v>
+        <v>2777000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>6522000.0</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>576000000.0</v>
+        <v>-644044000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>618000000.0</v>
+        <v>-1382980000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>504108000.0</v>
+        <v>-421270000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>937955000.0</v>
+        <v>-28415000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>778534000.0</v>
+        <v>-2402000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>465602000.0</v>
